--- a/docs/requirements/Master Data Tables - Test Data/master-loc_holiday.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-loc_holiday.xlsx
@@ -180,9 +180,6 @@
     <t>Journée de la jeunesse</t>
   </si>
   <si>
-    <t>Hégire, nouvel an</t>
-  </si>
-  <si>
     <t>Anniversaire de la marche verte</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Fête de l’indépendance</t>
+  </si>
+  <si>
+    <t>Hégire nouvel an</t>
   </si>
 </sst>
 </file>
@@ -1033,13 +1033,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -2735,7 +2736,7 @@
         <v>43709</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E59" t="s">
         <v>44</v>
@@ -2764,7 +2765,7 @@
         <v>43775</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" t="s">
         <v>44</v>
@@ -2793,7 +2794,7 @@
         <v>43779</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
         <v>44</v>
@@ -2822,7 +2823,7 @@
         <v>43787</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" t="s">
         <v>44</v>
@@ -3083,7 +3084,7 @@
         <v>43709</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E71" t="s">
         <v>44</v>
@@ -3112,7 +3113,7 @@
         <v>43779</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
         <v>44</v>
@@ -3141,7 +3142,7 @@
         <v>43787</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
         <v>44</v>
@@ -3161,5 +3162,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>